--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>281.7688496666667</v>
+        <v>173.9667156666667</v>
       </c>
       <c r="H2">
-        <v>845.306549</v>
+        <v>521.9001470000001</v>
       </c>
       <c r="I2">
-        <v>0.4678027549763872</v>
+        <v>0.339126905182122</v>
       </c>
       <c r="J2">
-        <v>0.4678027549763872</v>
+        <v>0.339126905182122</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N2">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q2">
-        <v>19161.23697373371</v>
+        <v>10256.5793730219</v>
       </c>
       <c r="R2">
-        <v>172451.1327636034</v>
+        <v>92309.21435719714</v>
       </c>
       <c r="S2">
-        <v>0.2931234426476024</v>
+        <v>0.1649223978019095</v>
       </c>
       <c r="T2">
-        <v>0.2931234426476024</v>
+        <v>0.1649223978019095</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>281.7688496666667</v>
+        <v>173.9667156666667</v>
       </c>
       <c r="H3">
-        <v>845.306549</v>
+        <v>521.9001470000001</v>
       </c>
       <c r="I3">
-        <v>0.4678027549763872</v>
+        <v>0.339126905182122</v>
       </c>
       <c r="J3">
-        <v>0.4678027549763872</v>
+        <v>0.339126905182122</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>26.97459</v>
       </c>
       <c r="O3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q3">
-        <v>2533.533064843323</v>
+        <v>1564.226942918303</v>
       </c>
       <c r="R3">
-        <v>22801.79758358991</v>
+        <v>14078.04248626473</v>
       </c>
       <c r="S3">
-        <v>0.03875730648529722</v>
+        <v>0.0251522509357259</v>
       </c>
       <c r="T3">
-        <v>0.03875730648529722</v>
+        <v>0.02515225093572591</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>281.7688496666667</v>
+        <v>173.9667156666667</v>
       </c>
       <c r="H4">
-        <v>845.306549</v>
+        <v>521.9001470000001</v>
       </c>
       <c r="I4">
-        <v>0.4678027549763872</v>
+        <v>0.339126905182122</v>
       </c>
       <c r="J4">
-        <v>0.4678027549763872</v>
+        <v>0.339126905182122</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N4">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q4">
-        <v>5850.89832344832</v>
+        <v>7396.476626669903</v>
       </c>
       <c r="R4">
-        <v>52658.08491103489</v>
+        <v>66568.28964002914</v>
       </c>
       <c r="S4">
-        <v>0.08950546676611922</v>
+        <v>0.1189328933352539</v>
       </c>
       <c r="T4">
-        <v>0.08950546676611923</v>
+        <v>0.1189328933352539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>281.7688496666667</v>
+        <v>173.9667156666667</v>
       </c>
       <c r="H5">
-        <v>845.306549</v>
+        <v>521.9001470000001</v>
       </c>
       <c r="I5">
-        <v>0.4678027549763872</v>
+        <v>0.339126905182122</v>
       </c>
       <c r="J5">
-        <v>0.4678027549763872</v>
+        <v>0.339126905182122</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N5">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O5">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P5">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q5">
-        <v>3034.21076365862</v>
+        <v>1873.133319136934</v>
       </c>
       <c r="R5">
-        <v>27307.89687292758</v>
+        <v>16858.19987223241</v>
       </c>
       <c r="S5">
-        <v>0.04641653907736833</v>
+        <v>0.03011936310923266</v>
       </c>
       <c r="T5">
-        <v>0.04641653907736834</v>
+        <v>0.03011936310923266</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>96.77942400000001</v>
+        <v>96.77942399999999</v>
       </c>
       <c r="H6">
         <v>290.338272</v>
       </c>
       <c r="I6">
-        <v>0.1606766724774111</v>
+        <v>0.1886596894161923</v>
       </c>
       <c r="J6">
-        <v>0.1606766724774111</v>
+        <v>0.1886596894161923</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N6">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q6">
-        <v>6581.328914247361</v>
+        <v>5705.837695029471</v>
       </c>
       <c r="R6">
-        <v>59231.96022822625</v>
+        <v>51352.53925526524</v>
       </c>
       <c r="S6">
-        <v>0.1006793972218426</v>
+        <v>0.0917479795074727</v>
       </c>
       <c r="T6">
-        <v>0.1006793972218426</v>
+        <v>0.09174797950747271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>96.77942400000001</v>
+        <v>96.77942399999999</v>
       </c>
       <c r="H7">
         <v>290.338272</v>
       </c>
       <c r="I7">
-        <v>0.1606766724774111</v>
+        <v>0.1886596894161923</v>
       </c>
       <c r="J7">
-        <v>0.1606766724774111</v>
+        <v>0.1886596894161923</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>26.97459</v>
       </c>
       <c r="O7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q7">
-        <v>870.1950942787199</v>
+        <v>870.1950942787198</v>
       </c>
       <c r="R7">
-        <v>7831.75584850848</v>
+        <v>7831.755848508478</v>
       </c>
       <c r="S7">
-        <v>0.01331201018805261</v>
+        <v>0.01399244877696699</v>
       </c>
       <c r="T7">
-        <v>0.01331201018805261</v>
+        <v>0.01399244877696699</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>96.77942400000001</v>
+        <v>96.77942399999999</v>
       </c>
       <c r="H8">
         <v>290.338272</v>
       </c>
       <c r="I8">
-        <v>0.1606766724774111</v>
+        <v>0.1886596894161923</v>
       </c>
       <c r="J8">
-        <v>0.1606766724774111</v>
+        <v>0.1886596894161923</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N8">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q8">
-        <v>2009.613803285088</v>
+        <v>4114.733929507263</v>
       </c>
       <c r="R8">
-        <v>18086.52422956579</v>
+        <v>37032.60536556537</v>
       </c>
       <c r="S8">
-        <v>0.03074253072588993</v>
+        <v>0.06616355816990779</v>
       </c>
       <c r="T8">
-        <v>0.03074253072588993</v>
+        <v>0.06616355816990779</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>96.77942400000001</v>
+        <v>96.77942399999999</v>
       </c>
       <c r="H9">
         <v>290.338272</v>
       </c>
       <c r="I9">
-        <v>0.1606766724774111</v>
+        <v>0.1886596894161923</v>
       </c>
       <c r="J9">
-        <v>0.1606766724774111</v>
+        <v>0.1886596894161923</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N9">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O9">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P9">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q9">
-        <v>1042.163356058944</v>
+        <v>1042.042801156448</v>
       </c>
       <c r="R9">
-        <v>9379.470204530497</v>
+        <v>9378.385210408031</v>
       </c>
       <c r="S9">
-        <v>0.01594273434162592</v>
+        <v>0.01675570296184483</v>
       </c>
       <c r="T9">
-        <v>0.01594273434162593</v>
+        <v>0.01675570296184484</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>82.14745433333333</v>
+        <v>120.8019793333333</v>
       </c>
       <c r="H10">
-        <v>246.442363</v>
+        <v>362.405938</v>
       </c>
       <c r="I10">
-        <v>0.1363841513953429</v>
+        <v>0.235488732624488</v>
       </c>
       <c r="J10">
-        <v>0.1363841513953429</v>
+        <v>0.2354887326244879</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N10">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q10">
-        <v>5586.305374536857</v>
+        <v>7122.138764891849</v>
       </c>
       <c r="R10">
-        <v>50276.74837083172</v>
+        <v>64099.24888402664</v>
       </c>
       <c r="S10">
-        <v>0.08545779509484211</v>
+        <v>0.1145216314196787</v>
       </c>
       <c r="T10">
-        <v>0.08545779509484211</v>
+        <v>0.1145216314196787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>82.14745433333333</v>
+        <v>120.8019793333333</v>
       </c>
       <c r="H11">
-        <v>246.442363</v>
+        <v>362.405938</v>
       </c>
       <c r="I11">
-        <v>0.1363841513953429</v>
+        <v>0.235488732624488</v>
       </c>
       <c r="J11">
-        <v>0.1363841513953429</v>
+        <v>0.2354887326244879</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>26.97459</v>
       </c>
       <c r="O11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q11">
-        <v>738.6313000617965</v>
+        <v>1086.194621235046</v>
       </c>
       <c r="R11">
-        <v>6647.68170055617</v>
+        <v>9775.751591115419</v>
       </c>
       <c r="S11">
-        <v>0.01129938269737914</v>
+        <v>0.01746564959900868</v>
       </c>
       <c r="T11">
-        <v>0.01129938269737914</v>
+        <v>0.01746564959900869</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>82.14745433333333</v>
+        <v>120.8019793333333</v>
       </c>
       <c r="H12">
-        <v>246.442363</v>
+        <v>362.405938</v>
       </c>
       <c r="I12">
-        <v>0.1363841513953429</v>
+        <v>0.235488732624488</v>
       </c>
       <c r="J12">
-        <v>0.1363841513953429</v>
+        <v>0.2354887326244879</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N12">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q12">
-        <v>1705.782606569327</v>
+        <v>5136.091770028534</v>
       </c>
       <c r="R12">
-        <v>15352.04345912394</v>
+        <v>46224.8259302568</v>
       </c>
       <c r="S12">
-        <v>0.0260946029074955</v>
+        <v>0.08258665381869808</v>
       </c>
       <c r="T12">
-        <v>0.0260946029074955</v>
+        <v>0.08258665381869808</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>82.14745433333333</v>
+        <v>120.8019793333333</v>
       </c>
       <c r="H13">
-        <v>246.442363</v>
+        <v>362.405938</v>
       </c>
       <c r="I13">
-        <v>0.1363841513953429</v>
+        <v>0.235488732624488</v>
       </c>
       <c r="J13">
-        <v>0.1363841513953429</v>
+        <v>0.2354887326244879</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N13">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O13">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P13">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q13">
-        <v>884.5998783762703</v>
+        <v>1300.698306798664</v>
       </c>
       <c r="R13">
-        <v>7961.398905386434</v>
+        <v>11706.28476118798</v>
       </c>
       <c r="S13">
-        <v>0.01353237069562617</v>
+        <v>0.02091479778710248</v>
       </c>
       <c r="T13">
-        <v>0.01353237069562618</v>
+        <v>0.02091479778710248</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>141.6283213333333</v>
+        <v>121.435997</v>
       </c>
       <c r="H14">
-        <v>424.884964</v>
+        <v>364.307991</v>
       </c>
       <c r="I14">
-        <v>0.2351364211508588</v>
+        <v>0.2367246727771976</v>
       </c>
       <c r="J14">
-        <v>0.2351364211508588</v>
+        <v>0.2367246727771976</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N14">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O14">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P14">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q14">
-        <v>9631.205970675988</v>
+        <v>7159.518630903257</v>
       </c>
       <c r="R14">
-        <v>86680.85373608388</v>
+        <v>64435.66767812932</v>
       </c>
       <c r="S14">
-        <v>0.1473355950267015</v>
+        <v>0.1151226872793283</v>
       </c>
       <c r="T14">
-        <v>0.1473355950267015</v>
+        <v>0.1151226872793283</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>141.6283213333333</v>
+        <v>121.435997</v>
       </c>
       <c r="H15">
-        <v>424.884964</v>
+        <v>364.307991</v>
       </c>
       <c r="I15">
-        <v>0.2351364211508588</v>
+        <v>0.2367246727771976</v>
       </c>
       <c r="J15">
-        <v>0.2351364211508588</v>
+        <v>0.2367246727771976</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>26.97459</v>
       </c>
       <c r="O15">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P15">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q15">
-        <v>1273.455300118306</v>
+        <v>1091.89541010541</v>
       </c>
       <c r="R15">
-        <v>11461.09770106476</v>
+        <v>9827.05869094869</v>
       </c>
       <c r="S15">
-        <v>0.01948097620942775</v>
+        <v>0.01755731639508845</v>
       </c>
       <c r="T15">
-        <v>0.01948097620942775</v>
+        <v>0.01755731639508845</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>141.6283213333333</v>
+        <v>121.435997</v>
       </c>
       <c r="H16">
-        <v>424.884964</v>
+        <v>364.307991</v>
       </c>
       <c r="I16">
-        <v>0.2351364211508588</v>
+        <v>0.2367246727771976</v>
       </c>
       <c r="J16">
-        <v>0.2351364211508588</v>
+        <v>0.2367246727771976</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N16">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O16">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P16">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q16">
-        <v>2940.896088486356</v>
+        <v>5163.048057812808</v>
       </c>
       <c r="R16">
-        <v>26468.0647963772</v>
+        <v>46467.43252031528</v>
       </c>
       <c r="S16">
-        <v>0.04498903630844313</v>
+        <v>0.08302010199430665</v>
       </c>
       <c r="T16">
-        <v>0.04498903630844314</v>
+        <v>0.08302010199430666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>141.6283213333333</v>
+        <v>121.435997</v>
       </c>
       <c r="H17">
-        <v>424.884964</v>
+        <v>364.307991</v>
       </c>
       <c r="I17">
-        <v>0.2351364211508588</v>
+        <v>0.2367246727771976</v>
       </c>
       <c r="J17">
-        <v>0.2351364211508588</v>
+        <v>0.2367246727771976</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N17">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O17">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P17">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q17">
-        <v>1525.115986159839</v>
+        <v>1307.524897803752</v>
       </c>
       <c r="R17">
-        <v>13726.04387543855</v>
+        <v>11767.72408023377</v>
       </c>
       <c r="S17">
-        <v>0.02333081360628644</v>
+        <v>0.02102456710847422</v>
       </c>
       <c r="T17">
-        <v>0.02333081360628644</v>
+        <v>0.02102456710847422</v>
       </c>
     </row>
   </sheetData>
